--- a/Code/Results/Cases/Case_5_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.862492596435999</v>
+        <v>1.488102091308974</v>
       </c>
       <c r="C2">
-        <v>0.1103116749705748</v>
+        <v>0.0429784381949645</v>
       </c>
       <c r="D2">
-        <v>0.07558422029725342</v>
+        <v>0.137095416425641</v>
       </c>
       <c r="E2">
-        <v>0.04762569892316648</v>
+        <v>0.07377937550791813</v>
       </c>
       <c r="F2">
-        <v>1.982239382577433</v>
+        <v>2.443551437920206</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.603797716324408</v>
+        <v>1.006837424343303</v>
       </c>
       <c r="L2">
-        <v>0.2736934368530086</v>
+        <v>0.233212589726449</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.083280010253958</v>
+        <v>3.257016017891075</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.636456866008075</v>
+        <v>1.437926680809284</v>
       </c>
       <c r="C3">
-        <v>0.09699068485696216</v>
+        <v>0.03891360204063687</v>
       </c>
       <c r="D3">
-        <v>0.07780384308603416</v>
+        <v>0.137507215632855</v>
       </c>
       <c r="E3">
-        <v>0.04415794902101844</v>
+        <v>0.0732840471825007</v>
       </c>
       <c r="F3">
-        <v>1.847376731371128</v>
+        <v>2.4171296269717</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.396691495435249</v>
+        <v>0.9578911728307276</v>
       </c>
       <c r="L3">
-        <v>0.241855392499545</v>
+        <v>0.2262685050182256</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.078600692111806</v>
+        <v>3.258522478605315</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.500173082204924</v>
+        <v>1.408023314977584</v>
       </c>
       <c r="C4">
-        <v>0.0888805810340898</v>
+        <v>0.03639846191256879</v>
       </c>
       <c r="D4">
-        <v>0.07918665350559717</v>
+        <v>0.1377667964018716</v>
       </c>
       <c r="E4">
-        <v>0.04209533194021375</v>
+        <v>0.07301236143795009</v>
       </c>
       <c r="F4">
-        <v>1.767613362612536</v>
+        <v>2.401974831123155</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.271595646311397</v>
+        <v>0.9284730697622763</v>
       </c>
       <c r="L4">
-        <v>0.2226992862199495</v>
+        <v>0.2221438623066518</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.07780038206775</v>
+        <v>3.260171859267004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.445199429310179</v>
+        <v>1.396064652243638</v>
       </c>
       <c r="C5">
-        <v>0.08558909026227468</v>
+        <v>0.03536859521847191</v>
       </c>
       <c r="D5">
-        <v>0.07975522319775497</v>
+        <v>0.1378742713089851</v>
       </c>
       <c r="E5">
-        <v>0.0412703436918509</v>
+        <v>0.07290980921766987</v>
       </c>
       <c r="F5">
-        <v>1.735814540305483</v>
+        <v>2.396067340362009</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.221077752869917</v>
+        <v>0.9166442831922552</v>
       </c>
       <c r="L5">
-        <v>0.2149817749725287</v>
+        <v>0.2204979433146974</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.077968259648543</v>
+        <v>3.261025872337072</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.436103255806103</v>
+        <v>1.394092640746123</v>
       </c>
       <c r="C6">
-        <v>0.08504324365482319</v>
+        <v>0.03519728704418412</v>
       </c>
       <c r="D6">
-        <v>0.07984994106167687</v>
+        <v>0.1378922197356749</v>
       </c>
       <c r="E6">
-        <v>0.04113426034366618</v>
+        <v>0.07289327354374997</v>
       </c>
       <c r="F6">
-        <v>1.730575307658768</v>
+        <v>2.395102593200022</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.212715374954541</v>
+        <v>0.9146897347119136</v>
       </c>
       <c r="L6">
-        <v>0.2137053708957524</v>
+        <v>0.2202267462748182</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.078025214385519</v>
+        <v>3.261178657333303</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.499429492584966</v>
+        <v>1.407861116668016</v>
       </c>
       <c r="C7">
-        <v>0.08883614137531026</v>
+        <v>0.03638459280985273</v>
       </c>
       <c r="D7">
-        <v>0.07919430086774248</v>
+        <v>0.1377682389890431</v>
       </c>
       <c r="E7">
-        <v>0.04208414444672393</v>
+        <v>0.0730109453315535</v>
       </c>
       <c r="F7">
-        <v>1.767181732331835</v>
+        <v>2.401894075227389</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.270912559784961</v>
+        <v>0.9283128979756157</v>
       </c>
       <c r="L7">
-        <v>0.2225948584444524</v>
+        <v>0.2221215236096441</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.077800680413915</v>
+        <v>3.260182640766814</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.783994482103026</v>
+        <v>1.470613698455253</v>
       </c>
       <c r="C8">
-        <v>0.1057018128408203</v>
+        <v>0.04158084816428698</v>
       </c>
       <c r="D8">
-        <v>0.07634543036480501</v>
+        <v>0.1372360072340371</v>
       </c>
       <c r="E8">
-        <v>0.04641544676680986</v>
+        <v>0.07360185295801003</v>
       </c>
       <c r="F8">
-        <v>1.935069842316665</v>
+        <v>2.434219202140582</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.531920453931917</v>
+        <v>0.9898287004303086</v>
       </c>
       <c r="L8">
-        <v>0.2626279716840116</v>
+        <v>0.2307893697286829</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.081219350789965</v>
+        <v>3.257384921364263</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.365163115172322</v>
+        <v>1.600868671506589</v>
       </c>
       <c r="C9">
-        <v>0.1395176848707962</v>
+        <v>0.05162101994585555</v>
       </c>
       <c r="D9">
-        <v>0.07091539282741977</v>
+        <v>0.13624570200143</v>
       </c>
       <c r="E9">
-        <v>0.0554966372520731</v>
+        <v>0.0750181162636494</v>
       </c>
       <c r="F9">
-        <v>2.291387336838383</v>
+        <v>2.506110257756092</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.063151914326141</v>
+        <v>1.115524746964752</v>
       </c>
       <c r="L9">
-        <v>0.3447392174947623</v>
+        <v>0.2488942489684973</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.105710023933696</v>
+        <v>3.257660754437737</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.811290130053749</v>
+        <v>1.700995526296424</v>
       </c>
       <c r="C10">
-        <v>0.1651157910906278</v>
+        <v>0.05891186340332411</v>
       </c>
       <c r="D10">
-        <v>0.06701975412114258</v>
+        <v>0.1355505948541254</v>
       </c>
       <c r="E10">
-        <v>0.06261723850381173</v>
+        <v>0.07621589625807346</v>
       </c>
       <c r="F10">
-        <v>2.574209646029288</v>
+        <v>2.564154861022246</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.469864848982724</v>
+        <v>1.211005997462451</v>
       </c>
       <c r="L10">
-        <v>0.4080194374714523</v>
+        <v>0.2628781551621557</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.136602279723107</v>
+        <v>3.261398319846393</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.019663188501511</v>
+        <v>1.747517181800561</v>
       </c>
       <c r="C11">
-        <v>0.1770008576979052</v>
+        <v>0.06221129379763113</v>
       </c>
       <c r="D11">
-        <v>0.06526790786746517</v>
+        <v>0.1352414066785244</v>
       </c>
       <c r="E11">
-        <v>0.06597654722706281</v>
+        <v>0.0767950204977943</v>
       </c>
       <c r="F11">
-        <v>2.70857408794248</v>
+        <v>2.591705720176549</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.659605900766906</v>
+        <v>1.255133650961909</v>
       </c>
       <c r="L11">
-        <v>0.4376372565862567</v>
+        <v>0.2693896310846071</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.153974420947947</v>
+        <v>3.263871213444673</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.099466933526685</v>
+        <v>1.765274246038643</v>
       </c>
       <c r="C12">
-        <v>0.1815431742233642</v>
+        <v>0.06345831406019897</v>
       </c>
       <c r="D12">
-        <v>0.06460749164316049</v>
+        <v>0.1351253347963599</v>
       </c>
       <c r="E12">
-        <v>0.0672679977549997</v>
+        <v>0.07701924702137219</v>
       </c>
       <c r="F12">
-        <v>2.760381297717885</v>
+        <v>2.602303973589926</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.732243085140908</v>
+        <v>1.271943897005229</v>
       </c>
       <c r="L12">
-        <v>0.4489899150121204</v>
+        <v>0.2718770480893795</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.161078981486355</v>
+        <v>3.264919118760105</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.082237857282109</v>
+        <v>1.761443698059907</v>
       </c>
       <c r="C13">
-        <v>0.180562927766303</v>
+        <v>0.06318985162317858</v>
       </c>
       <c r="D13">
-        <v>0.06474959085262277</v>
+        <v>0.1351502879620234</v>
       </c>
       <c r="E13">
-        <v>0.06698896451835878</v>
+        <v>0.07697073679732114</v>
       </c>
       <c r="F13">
-        <v>2.749180682074922</v>
+        <v>2.60001408785871</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.716562564191435</v>
+        <v>1.268319052308442</v>
       </c>
       <c r="L13">
-        <v>0.446538523223353</v>
+        <v>0.2713403736908475</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.159524651403274</v>
+        <v>3.264688469847215</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.026209989974916</v>
+        <v>1.748975251877823</v>
       </c>
       <c r="C14">
-        <v>0.1773736772008618</v>
+        <v>0.06231393463566803</v>
       </c>
       <c r="D14">
-        <v>0.06521351510077444</v>
+        <v>0.1352318371039001</v>
       </c>
       <c r="E14">
-        <v>0.06608239506160984</v>
+        <v>0.07681336904942881</v>
       </c>
       <c r="F14">
-        <v>2.712817086729672</v>
+        <v>2.592574328078513</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.665565391070714</v>
+        <v>1.256514632061823</v>
       </c>
       <c r="L14">
-        <v>0.4385683932700459</v>
+        <v>0.2695938378007838</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.15454807399567</v>
+        <v>3.263955189016741</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.992011858974024</v>
+        <v>1.741356253126071</v>
       </c>
       <c r="C15">
-        <v>0.1754258258160633</v>
+        <v>0.06177709948372012</v>
       </c>
       <c r="D15">
-        <v>0.0654980709196451</v>
+        <v>0.1352819200158368</v>
       </c>
       <c r="E15">
-        <v>0.06552968098323575</v>
+        <v>0.07671761810791722</v>
       </c>
       <c r="F15">
-        <v>2.690667302054067</v>
+        <v>2.588038808750127</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.634433932306735</v>
+        <v>1.249297128114051</v>
       </c>
       <c r="L15">
-        <v>0.4337048559177958</v>
+        <v>0.2685268574545887</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.151569834690918</v>
+        <v>3.26352056154731</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.797791384915683</v>
+        <v>1.697974843951954</v>
       </c>
       <c r="C16">
-        <v>0.1643445019834928</v>
+        <v>0.0586958977258405</v>
       </c>
       <c r="D16">
-        <v>0.06713465352337522</v>
+        <v>0.1355709424092826</v>
       </c>
       <c r="E16">
-        <v>0.06240028972851164</v>
+        <v>0.07617873827331678</v>
       </c>
       <c r="F16">
-        <v>2.565552225139982</v>
+        <v>2.562377455234994</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.457568781377319</v>
+        <v>1.208136129247521</v>
       </c>
       <c r="L16">
-        <v>0.4061020242160254</v>
+        <v>0.2624556421501723</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.135537808732821</v>
+        <v>3.261252289515852</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.68011282917837</v>
+        <v>1.671611317661643</v>
       </c>
       <c r="C17">
-        <v>0.1576128528912477</v>
+        <v>0.05680132354439138</v>
       </c>
       <c r="D17">
-        <v>0.06814386987618981</v>
+        <v>0.1357500472105659</v>
       </c>
       <c r="E17">
-        <v>0.06051268677292398</v>
+        <v>0.07585692457054094</v>
       </c>
       <c r="F17">
-        <v>2.490331519228505</v>
+        <v>2.546928962712968</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.350350435996461</v>
+        <v>1.183062933391824</v>
       </c>
       <c r="L17">
-        <v>0.3893933670169361</v>
+        <v>0.2587696516748963</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.126585841271933</v>
+        <v>3.260058933434038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.612930404357257</v>
+        <v>1.656539318896705</v>
       </c>
       <c r="C18">
-        <v>0.1537631368365027</v>
+        <v>0.05570999025265166</v>
       </c>
       <c r="D18">
-        <v>0.06872625038225522</v>
+        <v>0.1358537241638729</v>
       </c>
       <c r="E18">
-        <v>0.05943815615714954</v>
+        <v>0.07567504942661074</v>
       </c>
       <c r="F18">
-        <v>2.447596775727604</v>
+        <v>2.538151240075862</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.289118995273071</v>
+        <v>1.168706672391551</v>
       </c>
       <c r="L18">
-        <v>0.3798600856925702</v>
+        <v>0.2566636935534916</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.121746088763416</v>
+        <v>3.259445250397661</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.590266650440469</v>
+        <v>1.65145192195871</v>
       </c>
       <c r="C19">
-        <v>0.1524632893102051</v>
+        <v>0.05534020237037396</v>
       </c>
       <c r="D19">
-        <v>0.06892376070485007</v>
+        <v>0.1358889408132065</v>
       </c>
       <c r="E19">
-        <v>0.05907619685177323</v>
+        <v>0.07561402328852651</v>
       </c>
       <c r="F19">
-        <v>2.433215557267815</v>
+        <v>2.535197759720901</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.268459190609178</v>
+        <v>1.163857070117587</v>
       </c>
       <c r="L19">
-        <v>0.3766450191063342</v>
+        <v>0.2559530762532063</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.120159133652805</v>
+        <v>3.2592499437024</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.692587029686251</v>
+        <v>1.674408276914733</v>
       </c>
       <c r="C20">
-        <v>0.1583271068685264</v>
+        <v>0.05700317178715864</v>
       </c>
       <c r="D20">
-        <v>0.06803623954249716</v>
+        <v>0.1357309128192874</v>
       </c>
       <c r="E20">
-        <v>0.06071245502570122</v>
+        <v>0.07589084856096306</v>
       </c>
       <c r="F20">
-        <v>2.498283287661792</v>
+        <v>2.548562316091321</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.361717972839926</v>
+        <v>1.185725269026506</v>
       </c>
       <c r="L20">
-        <v>0.3911639321940186</v>
+        <v>0.2591605691204393</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.127506457849123</v>
+        <v>3.260178441059836</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.042641381996816</v>
+        <v>1.752633725649162</v>
       </c>
       <c r="C21">
-        <v>0.1783092446102756</v>
+        <v>0.06257127730809486</v>
       </c>
       <c r="D21">
-        <v>0.06507716813673881</v>
+        <v>0.1352078566939259</v>
       </c>
       <c r="E21">
-        <v>0.06634813355881164</v>
+        <v>0.07685945811509498</v>
       </c>
       <c r="F21">
-        <v>2.723471916152619</v>
+        <v>2.594755074238748</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.680522244310112</v>
+        <v>1.259979157204526</v>
       </c>
       <c r="L21">
-        <v>0.4409055456871869</v>
+        <v>0.2701062492168091</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.155995120310763</v>
+        <v>3.264167543040486</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.276716693166634</v>
+        <v>1.804576655317305</v>
       </c>
       <c r="C22">
-        <v>0.1916157279313353</v>
+        <v>0.06619638701275221</v>
       </c>
       <c r="D22">
-        <v>0.06316060273380408</v>
+        <v>0.1348719028512058</v>
       </c>
       <c r="E22">
-        <v>0.07014531129915369</v>
+        <v>0.07752120574656729</v>
       </c>
       <c r="F22">
-        <v>2.876102732528238</v>
+        <v>2.625908701538748</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.893521292128156</v>
+        <v>1.309091813167782</v>
       </c>
       <c r="L22">
-        <v>0.474222845232859</v>
+        <v>0.2773861845584946</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.177707465859328</v>
+        <v>3.26742458282277</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.151259760192943</v>
+        <v>1.776778765894676</v>
       </c>
       <c r="C23">
-        <v>0.1844886223756959</v>
+        <v>0.06426285183016489</v>
       </c>
       <c r="D23">
-        <v>0.06418189599511237</v>
+        <v>0.1350506679081338</v>
       </c>
       <c r="E23">
-        <v>0.06810751405841842</v>
+        <v>0.07716539201417305</v>
       </c>
       <c r="F23">
-        <v>2.794103430816165</v>
+        <v>2.609193039543925</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.779376444052389</v>
+        <v>1.282825929472892</v>
       </c>
       <c r="L23">
-        <v>0.4563605260574519</v>
+        <v>0.2734891645520321</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.165818517617566</v>
+        <v>3.265626647997152</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.686945980440782</v>
+        <v>1.673143507698853</v>
       </c>
       <c r="C24">
-        <v>0.1580041296366801</v>
+        <v>0.05691192279809343</v>
       </c>
       <c r="D24">
-        <v>0.06808489246526506</v>
+        <v>0.1357395612742351</v>
       </c>
       <c r="E24">
-        <v>0.06062210669520951</v>
+        <v>0.07587550174506319</v>
       </c>
       <c r="F24">
-        <v>2.49468671045463</v>
+        <v>2.547823553671037</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.356577440881694</v>
+        <v>1.184521444425741</v>
       </c>
       <c r="L24">
-        <v>0.3903632343807288</v>
+        <v>0.2589837943374533</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.127089294939367</v>
+        <v>3.26012418617762</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.204973544591951</v>
+        <v>1.564856545662906</v>
       </c>
       <c r="C25">
-        <v>0.130260898292704</v>
+        <v>0.0489203363820252</v>
       </c>
       <c r="D25">
-        <v>0.07236782738326308</v>
+        <v>0.1365078984170989</v>
       </c>
       <c r="E25">
-        <v>0.05296819812701514</v>
+        <v>0.07460738526527422</v>
       </c>
       <c r="F25">
-        <v>2.191653372995091</v>
+        <v>2.485747211794575</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.916915778906144</v>
+        <v>1.080973873212145</v>
       </c>
       <c r="L25">
-        <v>0.322066275214425</v>
+        <v>0.2438771174270471</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.096980579315655</v>
+        <v>3.256966985954421</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_143/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_143/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.488102091308974</v>
+        <v>1.8624925964358</v>
       </c>
       <c r="C2">
-        <v>0.0429784381949645</v>
+        <v>0.1103116749708022</v>
       </c>
       <c r="D2">
-        <v>0.137095416425641</v>
+        <v>0.07558422029750034</v>
       </c>
       <c r="E2">
-        <v>0.07377937550791813</v>
+        <v>0.0476256989231203</v>
       </c>
       <c r="F2">
-        <v>2.443551437920206</v>
+        <v>1.982239382577475</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.006837424343303</v>
+        <v>1.603797716324351</v>
       </c>
       <c r="L2">
-        <v>0.233212589726449</v>
+        <v>0.2736934368529944</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.257016017891075</v>
+        <v>2.083280010253986</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.437926680809284</v>
+        <v>1.636456866008132</v>
       </c>
       <c r="C3">
-        <v>0.03891360204063687</v>
+        <v>0.09699068485731743</v>
       </c>
       <c r="D3">
-        <v>0.137507215632855</v>
+        <v>0.07780384308594002</v>
       </c>
       <c r="E3">
-        <v>0.0732840471825007</v>
+        <v>0.04415794902100956</v>
       </c>
       <c r="F3">
-        <v>2.4171296269717</v>
+        <v>1.847376731371114</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9578911728307276</v>
+        <v>1.396691495435249</v>
       </c>
       <c r="L3">
-        <v>0.2262685050182256</v>
+        <v>0.2418553924995024</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.258522478605315</v>
+        <v>2.078600692111806</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.408023314977584</v>
+        <v>1.500173082205038</v>
       </c>
       <c r="C4">
-        <v>0.03639846191256879</v>
+        <v>0.08888058103426033</v>
       </c>
       <c r="D4">
-        <v>0.1377667964018716</v>
+        <v>0.07918665350541509</v>
       </c>
       <c r="E4">
-        <v>0.07301236143795009</v>
+        <v>0.04209533194027415</v>
       </c>
       <c r="F4">
-        <v>2.401974831123155</v>
+        <v>1.767613362612536</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9284730697622763</v>
+        <v>1.271595646311255</v>
       </c>
       <c r="L4">
-        <v>0.2221438623066518</v>
+        <v>0.222699286220049</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.260171859267004</v>
+        <v>2.077800382067736</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.396064652243638</v>
+        <v>1.445199429310264</v>
       </c>
       <c r="C5">
-        <v>0.03536859521847191</v>
+        <v>0.08558909026244521</v>
       </c>
       <c r="D5">
-        <v>0.1378742713089851</v>
+        <v>0.07975522319755779</v>
       </c>
       <c r="E5">
-        <v>0.07290980921766987</v>
+        <v>0.0412703436918509</v>
       </c>
       <c r="F5">
-        <v>2.396067340362009</v>
+        <v>1.735814540305498</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9166442831922552</v>
+        <v>1.221077752870002</v>
       </c>
       <c r="L5">
-        <v>0.2204979433146974</v>
+        <v>0.2149817749725855</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.261025872337072</v>
+        <v>2.077968259648571</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.394092640746123</v>
+        <v>1.436103255806074</v>
       </c>
       <c r="C6">
-        <v>0.03519728704418412</v>
+        <v>0.08504324365463845</v>
       </c>
       <c r="D6">
-        <v>0.1378922197356749</v>
+        <v>0.07984994106155696</v>
       </c>
       <c r="E6">
-        <v>0.07289327354374997</v>
+        <v>0.04113426034366263</v>
       </c>
       <c r="F6">
-        <v>2.395102593200022</v>
+        <v>1.730575307658739</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9146897347119136</v>
+        <v>1.212715374954513</v>
       </c>
       <c r="L6">
-        <v>0.2202267462748182</v>
+        <v>0.213705370895795</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.261178657333303</v>
+        <v>2.078025214385505</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.407861116668016</v>
+        <v>1.499429492585108</v>
       </c>
       <c r="C7">
-        <v>0.03638459280985273</v>
+        <v>0.08883614137558027</v>
       </c>
       <c r="D7">
-        <v>0.1377682389890431</v>
+        <v>0.07919430086769008</v>
       </c>
       <c r="E7">
-        <v>0.0730109453315535</v>
+        <v>0.04208414444670794</v>
       </c>
       <c r="F7">
-        <v>2.401894075227389</v>
+        <v>1.767181732331835</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9283128979756157</v>
+        <v>1.270912559785017</v>
       </c>
       <c r="L7">
-        <v>0.2221215236096441</v>
+        <v>0.2225948584444382</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.260182640766814</v>
+        <v>2.07780068041393</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.470613698455253</v>
+        <v>1.783994482103111</v>
       </c>
       <c r="C8">
-        <v>0.04158084816428698</v>
+        <v>0.1057018128406213</v>
       </c>
       <c r="D8">
-        <v>0.1372360072340371</v>
+        <v>0.07634543036459451</v>
       </c>
       <c r="E8">
-        <v>0.07360185295801003</v>
+        <v>0.04641544676682585</v>
       </c>
       <c r="F8">
-        <v>2.434219202140582</v>
+        <v>1.935069842316651</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9898287004303086</v>
+        <v>1.531920453931775</v>
       </c>
       <c r="L8">
-        <v>0.2307893697286829</v>
+        <v>0.2626279716839974</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.257384921364263</v>
+        <v>2.081219350789951</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.600868671506589</v>
+        <v>2.365163115172436</v>
       </c>
       <c r="C9">
-        <v>0.05162101994585555</v>
+        <v>0.1395176848707678</v>
       </c>
       <c r="D9">
-        <v>0.13624570200143</v>
+        <v>0.07091539282740733</v>
       </c>
       <c r="E9">
-        <v>0.0750181162636494</v>
+        <v>0.05549663725209086</v>
       </c>
       <c r="F9">
-        <v>2.506110257756092</v>
+        <v>2.291387336838397</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.115524746964752</v>
+        <v>2.063151914326141</v>
       </c>
       <c r="L9">
-        <v>0.2488942489684973</v>
+        <v>0.3447392174947765</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.257660754437737</v>
+        <v>2.105710023933767</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.700995526296424</v>
+        <v>2.811290130053862</v>
       </c>
       <c r="C10">
-        <v>0.05891186340332411</v>
+        <v>0.1651157910904146</v>
       </c>
       <c r="D10">
-        <v>0.1355505948541254</v>
+        <v>0.06701975412116923</v>
       </c>
       <c r="E10">
-        <v>0.07621589625807346</v>
+        <v>0.06261723850381529</v>
       </c>
       <c r="F10">
-        <v>2.564154861022246</v>
+        <v>2.574209646029274</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.211005997462451</v>
+        <v>2.469864848982724</v>
       </c>
       <c r="L10">
-        <v>0.2628781551621557</v>
+        <v>0.408019437471566</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.261398319846393</v>
+        <v>2.136602279723178</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.747517181800561</v>
+        <v>3.019663188501625</v>
       </c>
       <c r="C11">
-        <v>0.06221129379763113</v>
+        <v>0.1770008576976636</v>
       </c>
       <c r="D11">
-        <v>0.1352414066785244</v>
+        <v>0.06526790786734793</v>
       </c>
       <c r="E11">
-        <v>0.0767950204977943</v>
+        <v>0.06597654722706281</v>
       </c>
       <c r="F11">
-        <v>2.591705720176549</v>
+        <v>2.708574087942452</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.255133650961909</v>
+        <v>2.659605900766934</v>
       </c>
       <c r="L11">
-        <v>0.2693896310846071</v>
+        <v>0.4376372565860009</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.263871213444673</v>
+        <v>2.153974420947975</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.765274246038643</v>
+        <v>3.099466933526855</v>
       </c>
       <c r="C12">
-        <v>0.06345831406019897</v>
+        <v>0.1815431742228952</v>
       </c>
       <c r="D12">
-        <v>0.1351253347963599</v>
+        <v>0.06460749164316937</v>
       </c>
       <c r="E12">
-        <v>0.07701924702137219</v>
+        <v>0.0672679977550068</v>
       </c>
       <c r="F12">
-        <v>2.602303973589926</v>
+        <v>2.760381297717942</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.271943897005229</v>
+        <v>2.732243085140851</v>
       </c>
       <c r="L12">
-        <v>0.2718770480893795</v>
+        <v>0.4489899150121204</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.264919118760105</v>
+        <v>2.161078981486327</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.761443698059907</v>
+        <v>3.082237857281939</v>
       </c>
       <c r="C13">
-        <v>0.06318985162317858</v>
+        <v>0.1805629277662888</v>
       </c>
       <c r="D13">
-        <v>0.1351502879620234</v>
+        <v>0.06474959085262988</v>
       </c>
       <c r="E13">
-        <v>0.07697073679732114</v>
+        <v>0.06698896451835878</v>
       </c>
       <c r="F13">
-        <v>2.60001408785871</v>
+        <v>2.749180682074922</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.268319052308442</v>
+        <v>2.716562564191378</v>
       </c>
       <c r="L13">
-        <v>0.2713403736908475</v>
+        <v>0.4465385232232393</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.264688469847215</v>
+        <v>2.159524651403274</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.748975251877823</v>
+        <v>3.026209989974973</v>
       </c>
       <c r="C14">
-        <v>0.06231393463566803</v>
+        <v>0.1773736772006487</v>
       </c>
       <c r="D14">
-        <v>0.1352318371039001</v>
+        <v>0.06521351510066076</v>
       </c>
       <c r="E14">
-        <v>0.07681336904942881</v>
+        <v>0.06608239506163827</v>
       </c>
       <c r="F14">
-        <v>2.592574328078513</v>
+        <v>2.712817086729672</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.256514632061823</v>
+        <v>2.665565391070857</v>
       </c>
       <c r="L14">
-        <v>0.2695938378007838</v>
+        <v>0.4385683932700317</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.263955189016741</v>
+        <v>2.15454807399567</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741356253126071</v>
+        <v>2.992011858973967</v>
       </c>
       <c r="C15">
-        <v>0.06177709948372012</v>
+        <v>0.1754258258160775</v>
       </c>
       <c r="D15">
-        <v>0.1352819200158368</v>
+        <v>0.06549807091953674</v>
       </c>
       <c r="E15">
-        <v>0.07671761810791722</v>
+        <v>0.06552968098327483</v>
       </c>
       <c r="F15">
-        <v>2.588038808750127</v>
+        <v>2.690667302054067</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.249297128114051</v>
+        <v>2.634433932306706</v>
       </c>
       <c r="L15">
-        <v>0.2685268574545887</v>
+        <v>0.4337048559178811</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.26352056154731</v>
+        <v>2.151569834690918</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.697974843951954</v>
+        <v>2.797791384915627</v>
       </c>
       <c r="C16">
-        <v>0.0586958977258405</v>
+        <v>0.1643445019839476</v>
       </c>
       <c r="D16">
-        <v>0.1355709424092826</v>
+        <v>0.06713465352327219</v>
       </c>
       <c r="E16">
-        <v>0.07617873827331678</v>
+        <v>0.06240028972854716</v>
       </c>
       <c r="F16">
-        <v>2.562377455234994</v>
+        <v>2.565552225139996</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.208136129247521</v>
+        <v>2.457568781377404</v>
       </c>
       <c r="L16">
-        <v>0.2624556421501723</v>
+        <v>0.406102024216068</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.261252289515852</v>
+        <v>2.135537808732835</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.671611317661643</v>
+        <v>2.68011282917854</v>
       </c>
       <c r="C17">
-        <v>0.05680132354439138</v>
+        <v>0.1576128528907788</v>
       </c>
       <c r="D17">
-        <v>0.1357500472105659</v>
+        <v>0.06814386987606369</v>
       </c>
       <c r="E17">
-        <v>0.07585692457054094</v>
+        <v>0.06051268677291688</v>
       </c>
       <c r="F17">
-        <v>2.546928962712968</v>
+        <v>2.490331519228462</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.183062933391824</v>
+        <v>2.350350435996376</v>
       </c>
       <c r="L17">
-        <v>0.2587696516748963</v>
+        <v>0.3893933670168934</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.260058933434038</v>
+        <v>2.126585841271904</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.656539318896705</v>
+        <v>2.612930404357144</v>
       </c>
       <c r="C18">
-        <v>0.05570999025265166</v>
+        <v>0.1537631368365311</v>
       </c>
       <c r="D18">
-        <v>0.1358537241638729</v>
+        <v>0.06872625038239377</v>
       </c>
       <c r="E18">
-        <v>0.07567504942661074</v>
+        <v>0.05943815615716019</v>
       </c>
       <c r="F18">
-        <v>2.538151240075862</v>
+        <v>2.447596775727618</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.168706672391551</v>
+        <v>2.289118995273071</v>
       </c>
       <c r="L18">
-        <v>0.2566636935534916</v>
+        <v>0.3798600856925418</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.259445250397661</v>
+        <v>2.121746088763473</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.65145192195871</v>
+        <v>2.590266650440526</v>
       </c>
       <c r="C19">
-        <v>0.05534020237037396</v>
+        <v>0.1524632893104609</v>
       </c>
       <c r="D19">
-        <v>0.1358889408132065</v>
+        <v>0.06892376070496731</v>
       </c>
       <c r="E19">
-        <v>0.07561402328852651</v>
+        <v>0.05907619685173415</v>
       </c>
       <c r="F19">
-        <v>2.535197759720901</v>
+        <v>2.433215557267815</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.163857070117587</v>
+        <v>2.26845919060915</v>
       </c>
       <c r="L19">
-        <v>0.2559530762532063</v>
+        <v>0.3766450191063342</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.2592499437024</v>
+        <v>2.120159133652862</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.674408276914733</v>
+        <v>2.692587029686308</v>
       </c>
       <c r="C20">
-        <v>0.05700317178715864</v>
+        <v>0.1583271068685264</v>
       </c>
       <c r="D20">
-        <v>0.1357309128192874</v>
+        <v>0.06803623954261262</v>
       </c>
       <c r="E20">
-        <v>0.07589084856096306</v>
+        <v>0.06071245502570122</v>
       </c>
       <c r="F20">
-        <v>2.548562316091321</v>
+        <v>2.498283287661792</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.185725269026506</v>
+        <v>2.361717972839955</v>
       </c>
       <c r="L20">
-        <v>0.2591605691204393</v>
+        <v>0.3911639321940754</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.260178441059836</v>
+        <v>2.127506457849137</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.752633725649162</v>
+        <v>3.04264138199693</v>
       </c>
       <c r="C21">
-        <v>0.06257127730809486</v>
+        <v>0.1783092446107446</v>
       </c>
       <c r="D21">
-        <v>0.1352078566939259</v>
+        <v>0.06507716813672459</v>
       </c>
       <c r="E21">
-        <v>0.07685945811509498</v>
+        <v>0.06634813355883296</v>
       </c>
       <c r="F21">
-        <v>2.594755074238748</v>
+        <v>2.723471916152619</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.259979157204526</v>
+        <v>2.680522244310197</v>
       </c>
       <c r="L21">
-        <v>0.2701062492168091</v>
+        <v>0.4409055456871016</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.264167543040486</v>
+        <v>2.155995120310678</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.804576655317305</v>
+        <v>3.27671669316635</v>
       </c>
       <c r="C22">
-        <v>0.06619638701275221</v>
+        <v>0.1916157279308948</v>
       </c>
       <c r="D22">
-        <v>0.1348719028512058</v>
+        <v>0.06316060273370105</v>
       </c>
       <c r="E22">
-        <v>0.07752120574656729</v>
+        <v>0.07014531129915369</v>
       </c>
       <c r="F22">
-        <v>2.625908701538748</v>
+        <v>2.876102732528238</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.309091813167782</v>
+        <v>2.893521292128099</v>
       </c>
       <c r="L22">
-        <v>0.2773861845584946</v>
+        <v>0.4742228452329016</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.26742458282277</v>
+        <v>2.177707465859299</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776778765894676</v>
+        <v>3.151259760192943</v>
       </c>
       <c r="C23">
-        <v>0.06426285183016489</v>
+        <v>0.1844886223754827</v>
       </c>
       <c r="D23">
-        <v>0.1350506679081338</v>
+        <v>0.06418189599474466</v>
       </c>
       <c r="E23">
-        <v>0.07716539201417305</v>
+        <v>0.06810751405841842</v>
       </c>
       <c r="F23">
-        <v>2.609193039543925</v>
+        <v>2.794103430816222</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.282825929472892</v>
+        <v>2.779376444052446</v>
       </c>
       <c r="L23">
-        <v>0.2734891645520321</v>
+        <v>0.4563605260574377</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.265626647997152</v>
+        <v>2.165818517617566</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.673143507698853</v>
+        <v>2.686945980440669</v>
       </c>
       <c r="C24">
-        <v>0.05691192279809343</v>
+        <v>0.1580041296364101</v>
       </c>
       <c r="D24">
-        <v>0.1357395612742351</v>
+        <v>0.06808489246538763</v>
       </c>
       <c r="E24">
-        <v>0.07587550174506319</v>
+        <v>0.06062210669521306</v>
       </c>
       <c r="F24">
-        <v>2.547823553671037</v>
+        <v>2.494686710454587</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.184521444425741</v>
+        <v>2.356577440881722</v>
       </c>
       <c r="L24">
-        <v>0.2589837943374533</v>
+        <v>0.3903632343806862</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.26012418617762</v>
+        <v>2.127089294939381</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.564856545662906</v>
+        <v>2.204973544592008</v>
       </c>
       <c r="C25">
-        <v>0.0489203363820252</v>
+        <v>0.1302608982924767</v>
       </c>
       <c r="D25">
-        <v>0.1365078984170989</v>
+        <v>0.07236782738292735</v>
       </c>
       <c r="E25">
-        <v>0.07460738526527422</v>
+        <v>0.05296819812703291</v>
       </c>
       <c r="F25">
-        <v>2.485747211794575</v>
+        <v>2.191653372995091</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.080973873212145</v>
+        <v>1.916915778906088</v>
       </c>
       <c r="L25">
-        <v>0.2438771174270471</v>
+        <v>0.3220662752142971</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.256966985954421</v>
+        <v>2.096980579315712</v>
       </c>
       <c r="O25">
         <v>0</v>
